--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Cd9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N2">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O2">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P2">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q2">
-        <v>311.491740251562</v>
+        <v>758.9190777686201</v>
       </c>
       <c r="R2">
-        <v>1245.966961006248</v>
+        <v>3035.676311074481</v>
       </c>
       <c r="S2">
-        <v>0.02934073058577169</v>
+        <v>0.01872192147476491</v>
       </c>
       <c r="T2">
-        <v>0.0169168831029551</v>
+        <v>0.0101597519079914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>105.262465</v>
       </c>
       <c r="O3">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P3">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q3">
-        <v>157.7301547168784</v>
+        <v>593.2429546016692</v>
       </c>
       <c r="R3">
-        <v>946.38092830127</v>
+        <v>3559.457727610015</v>
       </c>
       <c r="S3">
-        <v>0.01485727349002092</v>
+        <v>0.01463482515707186</v>
       </c>
       <c r="T3">
-        <v>0.01284930984205964</v>
+        <v>0.01191273499996467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H4">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I4">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J4">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N4">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O4">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P4">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q4">
-        <v>289.7077650038914</v>
+        <v>492.9741961009851</v>
       </c>
       <c r="R4">
-        <v>1738.246590023348</v>
+        <v>2957.84517660591</v>
       </c>
       <c r="S4">
-        <v>0.0272888053940705</v>
+        <v>0.01216127576555913</v>
       </c>
       <c r="T4">
-        <v>0.02360071758547043</v>
+        <v>0.00989926793806567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H5">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I5">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J5">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N5">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O5">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P5">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q5">
-        <v>170.9409138684535</v>
+        <v>662.6992992364823</v>
       </c>
       <c r="R5">
-        <v>683.7636554738141</v>
+        <v>2650.797196945929</v>
       </c>
       <c r="S5">
-        <v>0.01610165102885019</v>
+        <v>0.01634825715301074</v>
       </c>
       <c r="T5">
-        <v>0.009283672995918046</v>
+        <v>0.00887164477356193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H6">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I6">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J6">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N6">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O6">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P6">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q6">
-        <v>168.4810516308597</v>
+        <v>4568.703272226313</v>
       </c>
       <c r="R6">
-        <v>1010.886309785158</v>
+        <v>27412.21963335788</v>
       </c>
       <c r="S6">
-        <v>0.01586994615239643</v>
+        <v>0.1127062244312173</v>
       </c>
       <c r="T6">
-        <v>0.0137251195803798</v>
+        <v>0.09174276905158947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H7">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I7">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J7">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N7">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O7">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P7">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q7">
-        <v>254.2854976429347</v>
+        <v>1411.027420683993</v>
       </c>
       <c r="R7">
-        <v>1525.712985857608</v>
+        <v>8466.164524103955</v>
       </c>
       <c r="S7">
-        <v>0.02395223151722983</v>
+        <v>0.03480890827841315</v>
       </c>
       <c r="T7">
-        <v>0.02071508237230403</v>
+        <v>0.02833442118428283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J8">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N8">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O8">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P8">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q8">
-        <v>32.088944298554</v>
+        <v>20.78674578038667</v>
       </c>
       <c r="R8">
-        <v>192.533665791324</v>
+        <v>124.72047468232</v>
       </c>
       <c r="S8">
-        <v>0.00302259401384235</v>
+        <v>0.0005127922510006396</v>
       </c>
       <c r="T8">
-        <v>0.002614089794921071</v>
+        <v>0.0004174124480916059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J9">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>105.262465</v>
       </c>
       <c r="O9">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P9">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q9">
         <v>16.24888719304278</v>
@@ -1013,10 +1013,10 @@
         <v>146.239984737385</v>
       </c>
       <c r="S9">
-        <v>0.001530551728481261</v>
+        <v>0.0004008469400649434</v>
       </c>
       <c r="T9">
-        <v>0.001985546009006794</v>
+        <v>0.000489433592949307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J10">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N10">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O10">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P10">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q10">
-        <v>29.84482454193045</v>
+        <v>13.50253220774333</v>
       </c>
       <c r="R10">
-        <v>268.603420877374</v>
+        <v>121.52278986969</v>
       </c>
       <c r="S10">
-        <v>0.002811210838390817</v>
+        <v>0.0003330965778948658</v>
       </c>
       <c r="T10">
-        <v>0.003646912650369707</v>
+        <v>0.0004067104887760642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J11">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N11">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O11">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P11">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q11">
-        <v>17.60981995554284</v>
+        <v>18.1512921016185</v>
       </c>
       <c r="R11">
-        <v>105.658919733257</v>
+        <v>108.907752609711</v>
       </c>
       <c r="S11">
-        <v>0.001658743768172638</v>
+        <v>0.0004477777346053606</v>
       </c>
       <c r="T11">
-        <v>0.001434564197808662</v>
+        <v>0.0003644906880667817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J12">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N12">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O12">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P12">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q12">
-        <v>17.35641232983656</v>
+        <v>125.1364951122538</v>
       </c>
       <c r="R12">
-        <v>156.207710968529</v>
+        <v>1126.228456010284</v>
       </c>
       <c r="S12">
-        <v>0.00163487422714332</v>
+        <v>0.003087016394431967</v>
       </c>
       <c r="T12">
-        <v>0.002120880945431065</v>
+        <v>0.003769243006259359</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J13">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N13">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O13">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P13">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q13">
-        <v>26.19572886011156</v>
+        <v>38.64795225487167</v>
       </c>
       <c r="R13">
-        <v>235.761559741004</v>
+        <v>347.831570293845</v>
       </c>
       <c r="S13">
-        <v>0.002467487010608151</v>
+        <v>0.0009534138071790203</v>
       </c>
       <c r="T13">
-        <v>0.003201008430502781</v>
+        <v>0.001164117019677147</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H14">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I14">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J14">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N14">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O14">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P14">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q14">
-        <v>471.0688546340141</v>
+        <v>335.1238068761334</v>
       </c>
       <c r="R14">
-        <v>2826.413127804085</v>
+        <v>2010.7428412568</v>
       </c>
       <c r="S14">
-        <v>0.04437197705468002</v>
+        <v>0.008267233991674833</v>
       </c>
       <c r="T14">
-        <v>0.03837509499056421</v>
+        <v>0.006729521307463804</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H15">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I15">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J15">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>105.262465</v>
       </c>
       <c r="O15">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P15">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q15">
-        <v>238.5352602406706</v>
+        <v>261.9644744379056</v>
       </c>
       <c r="R15">
-        <v>2146.817342166035</v>
+        <v>2357.680269941151</v>
       </c>
       <c r="S15">
-        <v>0.02246864973137392</v>
+        <v>0.006462452273600389</v>
       </c>
       <c r="T15">
-        <v>0.0291480104668983</v>
+        <v>0.007890645828602836</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H16">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I16">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J16">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N16">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O16">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P16">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q16">
-        <v>438.124956150515</v>
+        <v>217.6877537125667</v>
       </c>
       <c r="R16">
-        <v>3943.124605354635</v>
+        <v>1959.1897834131</v>
       </c>
       <c r="S16">
-        <v>0.04126885127333913</v>
+        <v>0.005370181288639566</v>
       </c>
       <c r="T16">
-        <v>0.05353703597027869</v>
+        <v>0.006556984375288405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H17">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I17">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J17">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N17">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O17">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P17">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q17">
-        <v>258.5138868885312</v>
+        <v>292.635036435315</v>
       </c>
       <c r="R17">
-        <v>1551.083321331187</v>
+        <v>1755.81021861189</v>
       </c>
       <c r="S17">
-        <v>0.02435052146728317</v>
+        <v>0.007219070298002557</v>
       </c>
       <c r="T17">
-        <v>0.02105954335154434</v>
+        <v>0.005876316968820358</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H18">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I18">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J18">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N18">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O18">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P18">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q18">
-        <v>254.7938380490822</v>
+        <v>2017.449920454796</v>
       </c>
       <c r="R18">
-        <v>2293.144542441739</v>
+        <v>18157.04928409316</v>
       </c>
       <c r="S18">
-        <v>0.02400011426009353</v>
+        <v>0.04976886218367135</v>
       </c>
       <c r="T18">
-        <v>0.03113474062854531</v>
+        <v>0.06076771605542678</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H19">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I19">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J19">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N19">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O19">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P19">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q19">
-        <v>384.5558730641072</v>
+        <v>623.0820843462834</v>
       </c>
       <c r="R19">
-        <v>3461.002857576965</v>
+        <v>5607.738759116551</v>
       </c>
       <c r="S19">
-        <v>0.03622295171498888</v>
+        <v>0.01537093241846332</v>
       </c>
       <c r="T19">
-        <v>0.04699111821820568</v>
+        <v>0.0187678885095908</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H20">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I20">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J20">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N20">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O20">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P20">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q20">
-        <v>606.36146976561</v>
+        <v>682.59386098754</v>
       </c>
       <c r="R20">
-        <v>2425.44587906244</v>
+        <v>2730.37544395016</v>
       </c>
       <c r="S20">
-        <v>0.05711576335095484</v>
+        <v>0.01683903994367834</v>
       </c>
       <c r="T20">
-        <v>0.03293103725279094</v>
+        <v>0.009137975951193209</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H21">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I21">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J21">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>105.262465</v>
       </c>
       <c r="O21">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P21">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q21">
-        <v>307.0434174698917</v>
+        <v>533.5799438272508</v>
       </c>
       <c r="R21">
-        <v>1842.26050481935</v>
+        <v>3201.479662963505</v>
       </c>
       <c r="S21">
-        <v>0.02892172416142755</v>
+        <v>0.0131629868077831</v>
       </c>
       <c r="T21">
-        <v>0.02501294703677437</v>
+        <v>0.01071465985867131</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H22">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I22">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J22">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N22">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O22">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P22">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q22">
-        <v>563.9559689396567</v>
+        <v>443.395310173495</v>
       </c>
       <c r="R22">
-        <v>3383.73581363794</v>
+        <v>2660.37186104097</v>
       </c>
       <c r="S22">
-        <v>0.0531214090413215</v>
+        <v>0.0109382046419949</v>
       </c>
       <c r="T22">
-        <v>0.04594203939755081</v>
+        <v>0.008903689103009404</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H23">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I23">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J23">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N23">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O23">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P23">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q23">
-        <v>332.7599752489175</v>
+        <v>596.0509975181857</v>
       </c>
       <c r="R23">
-        <v>1331.03990099567</v>
+        <v>2384.203990072743</v>
       </c>
       <c r="S23">
-        <v>0.03134407601184406</v>
+        <v>0.01470409731074517</v>
       </c>
       <c r="T23">
-        <v>0.01807194501556271</v>
+        <v>0.007979414982030329</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H24">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I24">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J24">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N24">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O24">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P24">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q24">
-        <v>327.9715154309984</v>
+        <v>4109.224418846615</v>
       </c>
       <c r="R24">
-        <v>1967.82909258599</v>
+        <v>24655.34651307969</v>
       </c>
       <c r="S24">
-        <v>0.03089303063476634</v>
+        <v>0.1013712517519399</v>
       </c>
       <c r="T24">
-        <v>0.0267178310241763</v>
+        <v>0.08251611110994526</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H25">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I25">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J25">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N25">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O25">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P25">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q25">
-        <v>495.0016586838734</v>
+        <v>1269.119044781247</v>
       </c>
       <c r="R25">
-        <v>2970.00995210324</v>
+        <v>7614.714268687485</v>
       </c>
       <c r="S25">
-        <v>0.04662630956193008</v>
+        <v>0.03130814311373425</v>
       </c>
       <c r="T25">
-        <v>0.04032475398365867</v>
+        <v>0.02548480137288555</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H26">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I26">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J26">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N26">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O26">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P26">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q26">
-        <v>435.1012124992519</v>
+        <v>1588.51822919172</v>
       </c>
       <c r="R26">
-        <v>2610.607274995511</v>
+        <v>9531.109375150319</v>
       </c>
       <c r="S26">
-        <v>0.04098403201052177</v>
+        <v>0.03918746335327624</v>
       </c>
       <c r="T26">
-        <v>0.03544503143418565</v>
+        <v>0.03189856122215608</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H27">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I27">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J27">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>105.262465</v>
       </c>
       <c r="O27">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P27">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q27">
-        <v>220.3223158006811</v>
+        <v>1241.736142007515</v>
       </c>
       <c r="R27">
-        <v>1982.900842206129</v>
+        <v>11175.62527806764</v>
       </c>
       <c r="S27">
-        <v>0.02075309510525192</v>
+        <v>0.03063262899042579</v>
       </c>
       <c r="T27">
-        <v>0.02692246488242484</v>
+        <v>0.0374024001925477</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H28">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I28">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J28">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N28">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O28">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P28">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q28">
-        <v>404.6726880200458</v>
+        <v>1031.86033922091</v>
       </c>
       <c r="R28">
-        <v>3642.054192180412</v>
+        <v>9286.743052988189</v>
       </c>
       <c r="S28">
-        <v>0.0381178399948172</v>
+        <v>0.02545516222970479</v>
       </c>
       <c r="T28">
-        <v>0.04944930881151562</v>
+        <v>0.03108072000543004</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H29">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I29">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J29">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N29">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O29">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P29">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q29">
-        <v>238.7755091991443</v>
+        <v>1387.117478196643</v>
       </c>
       <c r="R29">
-        <v>1432.653055194866</v>
+        <v>8322.704869179861</v>
       </c>
       <c r="S29">
-        <v>0.02249127980162361</v>
+        <v>0.03421906928394426</v>
       </c>
       <c r="T29">
-        <v>0.01945157858941132</v>
+        <v>0.02785429275375231</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H30">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I30">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J30">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N30">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O30">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P30">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q30">
-        <v>235.3394982112002</v>
+        <v>9562.901558671874</v>
       </c>
       <c r="R30">
-        <v>2118.055483900801</v>
+        <v>86066.11402804688</v>
       </c>
       <c r="S30">
-        <v>0.02216762732658333</v>
+        <v>0.2359090676423165</v>
       </c>
       <c r="T30">
-        <v>0.02875750172202454</v>
+        <v>0.2880446650454497</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H31">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I31">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J31">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N31">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O31">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P31">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q31">
-        <v>355.1937789941502</v>
+        <v>2953.467431911455</v>
       </c>
       <c r="R31">
-        <v>3196.744010947352</v>
+        <v>26581.20688720309</v>
       </c>
       <c r="S31">
-        <v>0.03345721131094177</v>
+        <v>0.07285965916300251</v>
       </c>
       <c r="T31">
-        <v>0.04340319321115368</v>
+        <v>0.08896154916246274</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H32">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I32">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J32">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>69.292158</v>
+        <v>44.88644</v>
       </c>
       <c r="N32">
-        <v>138.584316</v>
+        <v>89.77288</v>
       </c>
       <c r="O32">
-        <v>0.2302847784735656</v>
+        <v>0.08941539400600468</v>
       </c>
       <c r="P32">
-        <v>0.1742377818809482</v>
+        <v>0.06313518933231116</v>
       </c>
       <c r="Q32">
-        <v>588.6737456380561</v>
+        <v>238.6354067391466</v>
       </c>
       <c r="R32">
-        <v>3532.042473828336</v>
+        <v>1431.81244043488</v>
       </c>
       <c r="S32">
-        <v>0.05544968145779488</v>
+        <v>0.005886942991609721</v>
       </c>
       <c r="T32">
-        <v>0.04795564530553124</v>
+        <v>0.004791966495415062</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H33">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I33">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J33">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>105.262465</v>
       </c>
       <c r="O33">
-        <v>0.1166093640500485</v>
+        <v>0.06989553179102848</v>
       </c>
       <c r="P33">
-        <v>0.1323432473911474</v>
+        <v>0.07402865606362163</v>
       </c>
       <c r="Q33">
-        <v>298.08687993546</v>
+        <v>186.5400118583711</v>
       </c>
       <c r="R33">
-        <v>2682.78191941914</v>
+        <v>1678.86010672534</v>
       </c>
       <c r="S33">
-        <v>0.02807806983349295</v>
+        <v>0.004601791622082404</v>
       </c>
       <c r="T33">
-        <v>0.03642496915398347</v>
+        <v>0.005618781590885807</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H34">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I34">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J34">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>64.44625533333334</v>
+        <v>29.15707</v>
       </c>
       <c r="N34">
-        <v>193.338766</v>
+        <v>87.47121</v>
       </c>
       <c r="O34">
-        <v>0.214179960059658</v>
+        <v>0.05808192634815011</v>
       </c>
       <c r="P34">
-        <v>0.2430788613874581</v>
+        <v>0.06151647807752574</v>
       </c>
       <c r="Q34">
-        <v>547.5052244645041</v>
+        <v>155.0113855937733</v>
       </c>
       <c r="R34">
-        <v>4927.547020180537</v>
+        <v>1395.10247034396</v>
       </c>
       <c r="S34">
-        <v>0.05157184351771881</v>
+        <v>0.003824005844356871</v>
       </c>
       <c r="T34">
-        <v>0.06690284697227286</v>
+        <v>0.004669106166956156</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H35">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I35">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J35">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>38.0262565</v>
+        <v>39.1954995</v>
       </c>
       <c r="N35">
-        <v>76.052513</v>
+        <v>78.39099899999999</v>
       </c>
       <c r="O35">
-        <v>0.1263760331188052</v>
+        <v>0.07807883697291786</v>
       </c>
       <c r="P35">
-        <v>0.09561847656405779</v>
+        <v>0.05513057577983479</v>
       </c>
       <c r="Q35">
-        <v>323.0532789359581</v>
+        <v>208.379946494454</v>
       </c>
       <c r="R35">
-        <v>1938.319673615748</v>
+        <v>1250.279678966724</v>
       </c>
       <c r="S35">
-        <v>0.03042976104103154</v>
+        <v>0.005140565192609779</v>
       </c>
       <c r="T35">
-        <v>0.02631717241381272</v>
+        <v>0.004184415613603079</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H36">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I36">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J36">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>37.47905366666667</v>
+        <v>270.2169853333333</v>
       </c>
       <c r="N36">
-        <v>112.437161</v>
+        <v>810.650956</v>
       </c>
       <c r="O36">
-        <v>0.1245574653776436</v>
+        <v>0.5382819000726007</v>
       </c>
       <c r="P36">
-        <v>0.1413637711617457</v>
+        <v>0.5701120604516535</v>
       </c>
       <c r="Q36">
-        <v>318.404499754884</v>
+        <v>1436.588426323095</v>
       </c>
       <c r="R36">
-        <v>2865.640497793956</v>
+        <v>12929.29583690786</v>
       </c>
       <c r="S36">
-        <v>0.02999187277666061</v>
+        <v>0.03543947766902372</v>
       </c>
       <c r="T36">
-        <v>0.03890769726118871</v>
+        <v>0.04327155618298298</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H37">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I37">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J37">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>56.56647866666668</v>
+        <v>83.455535</v>
       </c>
       <c r="N37">
-        <v>169.699436</v>
+        <v>250.366605</v>
       </c>
       <c r="O37">
-        <v>0.1879923989202791</v>
+        <v>0.1662464108092982</v>
       </c>
       <c r="P37">
-        <v>0.2133578616146428</v>
+        <v>0.1760770402950531</v>
       </c>
       <c r="Q37">
-        <v>480.5623296399841</v>
+        <v>443.6851204808866</v>
       </c>
       <c r="R37">
-        <v>4325.060966759856</v>
+        <v>3993.16608432798</v>
       </c>
       <c r="S37">
-        <v>0.04526620780458038</v>
+        <v>0.01094535402850593</v>
       </c>
       <c r="T37">
-        <v>0.05872270539881801</v>
+        <v>0.013364263046154</v>
       </c>
     </row>
   </sheetData>
